--- a/schematic 2.xlsx
+++ b/schematic 2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="151">
   <si>
     <t>PA</t>
   </si>
@@ -466,6 +466,9 @@
   </si>
   <si>
     <t>channel</t>
+  </si>
+  <si>
+    <t>Interrupt for port expander</t>
   </si>
 </sst>
 </file>
@@ -836,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,6 +998,9 @@
       <c r="I9" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="J9" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1931,9 +1937,6 @@
       <c r="A80" s="5">
         <v>61</v>
       </c>
-      <c r="B80" s="8" t="s">
-        <v>8</v>
-      </c>
       <c r="C80" s="9" t="s">
         <v>86</v>
       </c>
@@ -1944,7 +1947,7 @@
         <v>62</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C81" s="9" t="s">
         <v>125</v>
@@ -1957,7 +1960,9 @@
       <c r="A82" s="5">
         <v>63</v>
       </c>
-      <c r="B82" s="8"/>
+      <c r="B82" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="C82" s="9" t="s">
         <v>126</v>
       </c>

--- a/schematic 2.xlsx
+++ b/schematic 2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="152">
   <si>
     <t>PA</t>
   </si>
@@ -469,6 +469,9 @@
   </si>
   <si>
     <t>Interrupt for port expander</t>
+  </si>
+  <si>
+    <t>GND</t>
   </si>
 </sst>
 </file>
@@ -839,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1456,7 +1459,7 @@
         <v>23</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>96</v>
